--- a/consulta_cubos/encabezados_SIS_2024.xlsx
+++ b/consulta_cubos/encabezados_SIS_2024.xlsx
@@ -174,7 +174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,13 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -248,7 +242,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -567,7 +561,7 @@
   <cols>
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="25.290714285714284" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -588,7 +582,7 @@
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -702,7 +696,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -749,7 +743,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -796,7 +790,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -843,7 +837,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -892,7 +886,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -941,7 +935,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
